--- a/DSP_H2_2025/Tháng 9/NewEleven_20250928_20250928_DSP Product.xlsx
+++ b/DSP_H2_2025/Tháng 9/NewEleven_20250928_20250928_DSP Product.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>Creative Asset</t>
   </si>
@@ -134,10 +134,10 @@
     <t>B0DHC932W2-Birthday-Hat</t>
   </si>
   <si>
-    <t>B0DH88L44J-Birthday-Wineglass</t>
+    <t>B0DHC2C1S4-Birthday-Hat</t>
   </si>
   <si>
-    <t>B0DHC2C1S4-Birthday-Hat</t>
+    <t>B0DH88L44J-Birthday-Wineglass</t>
   </si>
   <si>
     <t>B0DH7YGD9Q-Birthday-Tumblers</t>
@@ -152,28 +152,28 @@
     <t>B08R8R2LQF-Birthday-Tumblers</t>
   </si>
   <si>
+    <t>B089QFYLFB-Birthday-Tumblers</t>
+  </si>
+  <si>
     <t>B0DGGDX9P5-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0DH86X93V-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DGGDN9WS-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B089QFYLFB-Birthday-Tumblers</t>
+    <t>B0DH7X6R1J-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0DH7X6R1J-Birthday-Tumblers</t>
+    <t>B0DM63J16N-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DH7Y6RDX-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0DM63J16N-Birthday-Tumblers</t>
-  </si>
-  <si>
     <t>B0DM61B4F2-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0DH86X93V-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DH87FYNN-Birthday-Tumblers</t>
@@ -182,31 +182,31 @@
     <t>B0CYPT8HM7-Birthday-Cf glass</t>
   </si>
   <si>
-    <t>B0DH7PQ1RX-Birthday-Tumblers</t>
-  </si>
-  <si>
     <t>B0CYS94K31-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DH83T7MF-Birthday-Tumblers</t>
   </si>
   <si>
+    <t>B0DH7PQ1RX-Birthday-Tumblers</t>
+  </si>
+  <si>
     <t>B0DHCFTYVW-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0D79751XN-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0978WGWY4-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0D79751XN-Birthday-Tumblers</t>
-  </si>
-  <si>
     <t>B0CYPWBV21-Birthday-Cf glass</t>
   </si>
   <si>
-    <t>B0D1GH6WJ6-Birthday-Tumblers</t>
+    <t>B08R8SW1NM-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B08R8SW1NM-Birthday-Tumblers</t>
+    <t>B0D1GH6WJ6-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0CM5RJ8VD-Dads - tumblers</t>
@@ -215,22 +215,22 @@
     <t>B0CJLF7CW6-Dads - tumblers</t>
   </si>
   <si>
-    <t>B0DRT3MK34-Engagement-Ornament</t>
+    <t>B0DVSKXLS5-Mother Glass</t>
   </si>
   <si>
     <t>B0CDLQGPKC-Birthday-Tumblers</t>
   </si>
   <si>
+    <t>B0DRT3MK34-Engagement-Ornament</t>
+  </si>
+  <si>
+    <t>B0F2T4JDF7-Moms-Cards</t>
+  </si>
+  <si>
     <t>B0DPM5JXP70-HouseWarming-Ornaments</t>
   </si>
   <si>
-    <t>B0DVSKXLS5-Mother Glass</t>
-  </si>
-  <si>
     <t>B0D7HMXCSP-Retirement</t>
-  </si>
-  <si>
-    <t>B0F2T4JDF7-Moms-Cards</t>
   </si>
   <si>
     <t>B0CRVTN11L-Moms-Cf glass</t>
@@ -239,25 +239,25 @@
     <t>B0F7LJYVN5-Dads-Card</t>
   </si>
   <si>
+    <t>B097B9H21P-Moms - Tumblers</t>
+  </si>
+  <si>
     <t>B0CG8NHNWF-Moms - Tumblers</t>
+  </si>
+  <si>
+    <t>B0F18PVLJ1-Retirement-Tumbler</t>
   </si>
   <si>
     <t>B0BRB6NJCT-Retirement -Cf glass</t>
   </si>
   <si>
-    <t>B0F18PVLJ1-Retirement-Tumbler</t>
+    <t>B0F13MKH7X-Retirement-Wine Glass</t>
+  </si>
+  <si>
+    <t>B0F18CMJ3L-Retirement-WhiskeyGlass</t>
   </si>
   <si>
     <t>B09XXP5V2W-Retirement - tumblers</t>
-  </si>
-  <si>
-    <t>B0F13MKH7X-Retirement-Wine Glass</t>
-  </si>
-  <si>
-    <t>B097B9H21P-Moms - Tumblers</t>
-  </si>
-  <si>
-    <t>B0F18CMJ3L-Retirement-WhiskeyGlass</t>
   </si>
   <si>
     <t>B09ZYCD6GX-Retirement</t>
@@ -269,10 +269,28 @@
     <t>B0DXVPDSJK-Moms-REC</t>
   </si>
   <si>
-    <t>B09ZYBDMZ1-Retirement-tumblers</t>
+    <t>B0BHWDNYVL-Moms - Cf glass</t>
+  </si>
+  <si>
+    <t>B0CJX4XSXB-Moms - Tumblers</t>
+  </si>
+  <si>
+    <t>B0D1K731RT-Moms-Cf glass</t>
+  </si>
+  <si>
+    <t>B0B9SF2R4R-Moms-Coffee Glass</t>
+  </si>
+  <si>
+    <t>B0C9BZRC4K-Moms - Cf glass</t>
+  </si>
+  <si>
+    <t>B0DCJM56W3-Moms-Cf glass</t>
   </si>
   <si>
     <t>B09YCTFXYV-Retirement-tumblers</t>
+  </si>
+  <si>
+    <t>B09ZYBDMZ1-Retirement-tumblers</t>
   </si>
   <si>
     <t>B0CXXJ751C-Retirement-cfglass</t>
@@ -281,31 +299,13 @@
     <t>B0DLVS7R7V-Retirement-ornaments</t>
   </si>
   <si>
-    <t>B0CJX4XSXB-Moms - Tumblers</t>
-  </si>
-  <si>
-    <t>B0DCJM56W3-Moms-Cf glass</t>
-  </si>
-  <si>
-    <t>B0B9SF2R4R-Moms-Coffee Glass</t>
-  </si>
-  <si>
-    <t>B0C9BZRC4K-Moms - Cf glass</t>
-  </si>
-  <si>
-    <t>B0BHWDNYVL-Moms - Cf glass</t>
-  </si>
-  <si>
-    <t>B0D1K731RT-Moms-Cf glass</t>
-  </si>
-  <si>
     <t>B0DVSKBSWN-Dads-BIble Jar</t>
   </si>
   <si>
-    <t>B08ZKZ1FJK-Dads - tumblers</t>
+    <t>B08CDFWN1Q-Dads,Men-Apron</t>
   </si>
   <si>
-    <t>B08CDFWN1Q-Dads,Men-Apron</t>
+    <t>B08ZKZ1FJK-Dads - tumblers</t>
   </si>
   <si>
     <t>B0CG8N67SJ-Dads - tumblers</t>
@@ -314,13 +314,13 @@
     <t>B0F59S8H6T-Dads-Card</t>
   </si>
   <si>
+    <t>B0F59Z29ZR-Dads,Grandpa-Card</t>
+  </si>
+  <si>
     <t>B0F2TDKZ4N-Dads-Card</t>
   </si>
   <si>
     <t>B08ZYGT8SH-Men,Dads-Apron</t>
-  </si>
-  <si>
-    <t>B0F59Z29ZR-Dads,Grandpa-Card</t>
   </si>
   <si>
     <t>B0F1FWGNH8-Dads-Tumbler</t>
@@ -347,19 +347,61 @@
     <t>B0CM5SQT4T-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0F59VYMYR-Dads,Husband-Card</t>
+    <t>B0978WGWY4-Birthday-Wineglass</t>
+  </si>
+  <si>
+    <t>B0CKYN27VS-Birthday-Cf glass</t>
+  </si>
+  <si>
+    <t>B0DQ59YSW3-Dads,Men-Tumblers</t>
+  </si>
+  <si>
+    <t>B0CXXM1YD1-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0DH886R83-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0CN93CWYD-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B09TT1GGMM-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0CT8NQBN5-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0DJT3P5FK0-Birthday Ornaments</t>
   </si>
   <si>
     <t>B0CN93LZ5M-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0CXXM1YD1-Birthday-Tumblers</t>
+    <t>B0DCJQ2SKV-Moms-Cf glass</t>
   </si>
   <si>
-    <t>B09TT1GGMM-Birthday-Tumblers</t>
+    <t>B0CN92WPN9-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0CKYM9HQW-Birthday-Cf glass</t>
+  </si>
+  <si>
+    <t>B0CN8ZP46N-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0DJYD117Z-Birthday Ornaments</t>
+  </si>
+  <si>
+    <t>B0D5YHG24C-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0F59VYMYR-Dads,Husband-Card</t>
+  </si>
+  <si>
+    <t>B0CLYRNFBT-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0DH7X2GCX-Birthday-Wineglass</t>
   </si>
   <si>
     <t>B0CM5T2F1V-Birthday-Wineglass</t>
@@ -368,52 +410,13 @@
     <t>B0CM5QBW1Z-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0CT8NQBN5-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0DJT3P5FK0-Birthday Ornaments</t>
-  </si>
-  <si>
-    <t>B0CLYRNFBT-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0DCJQ2SKV-Moms-Cf glass</t>
-  </si>
-  <si>
-    <t>B0DH7X2GCX-Birthday-Wineglass</t>
-  </si>
-  <si>
-    <t>B0978WGWY4-Birthday-Wineglass</t>
+    <t>B088GX79HT-Dads - tumblers</t>
   </si>
   <si>
     <t>B0CRDCNJ39-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0DJYD117Z-Birthday Ornaments</t>
-  </si>
-  <si>
-    <t>B0CN92WPN9-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0CKYN27VS-Birthday-Cf glass</t>
-  </si>
-  <si>
     <t>B0DK11YM64-Birthday Ornaments</t>
-  </si>
-  <si>
-    <t>B0D5YHG24C-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0CN93CWYD-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B088GX79HT-Dads - tumblers</t>
-  </si>
-  <si>
-    <t>B0DH886R83-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0CN8ZP46N-Birthday-Tumblers</t>
   </si>
   <si>
     <t>Total</t>
@@ -3382,7 +3385,7 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:ext cx="952500" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="96" name="" descr=""/>
@@ -3392,6 +3395,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3698,10 +3731,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AL97"/>
+  <dimension ref="A1:AL98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:AL97"/>
+      <selection activeCell="A1" sqref="A1:AL98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="20" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3728,13 +3761,13 @@
     <col min="20" max="20" width="19.995117" bestFit="true" customWidth="true" style="4"/>
     <col min="21" max="21" width="19.995117" bestFit="true" customWidth="true" style="4"/>
     <col min="22" max="22" width="8.140869" bestFit="true" customWidth="true" style="2"/>
-    <col min="23" max="23" width="4.570313" bestFit="true" customWidth="true" style="4"/>
+    <col min="23" max="23" width="6.998291" bestFit="true" customWidth="true" style="4"/>
     <col min="24" max="24" width="6.998291" bestFit="true" customWidth="true" style="3"/>
     <col min="25" max="25" width="8.140869" bestFit="true" customWidth="true" style="2"/>
     <col min="26" max="26" width="4.570313" bestFit="true" customWidth="true" style="4"/>
     <col min="27" max="27" width="6.998291" bestFit="true" customWidth="true" style="3"/>
     <col min="28" max="28" width="13.996582" bestFit="true" customWidth="true" style="2"/>
-    <col min="29" max="29" width="9.283447" bestFit="true" customWidth="true" style="2"/>
+    <col min="29" max="29" width="8.140869" bestFit="true" customWidth="true" style="2"/>
     <col min="30" max="30" width="16.424561" bestFit="true" customWidth="true" style="2"/>
     <col min="31" max="31" width="38.847656" bestFit="true" customWidth="true" style="2"/>
     <col min="32" max="32" width="31.706543" bestFit="true" customWidth="true" style="2"/>
@@ -3868,19 +3901,19 @@
         <v>38</v>
       </c>
       <c r="C2" s="7">
-        <v>12.86</v>
+        <v>19.85</v>
       </c>
       <c r="D2" s="7">
         <v>19.98</v>
       </c>
       <c r="E2" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="F2" s="7">
         <v>0.17</v>
       </c>
-      <c r="F2" s="7">
-        <v>0.44</v>
-      </c>
       <c r="G2" s="6">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="H2" s="8">
         <v>0</v>
@@ -3889,31 +3922,31 @@
         <v>0.0005</v>
       </c>
       <c r="J2" s="8">
-        <v>0.0004</v>
+        <v>0.001</v>
       </c>
       <c r="K2" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L2" s="7">
-        <v>12.86</v>
+        <v>19.85</v>
       </c>
       <c r="M2" s="6">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="N2" s="8">
         <v>0</v>
       </c>
       <c r="O2" s="9">
-        <v>75640</v>
+        <v>123033</v>
       </c>
       <c r="P2" s="9">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="9">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="R2" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S2" s="9">
         <v>1</v>
@@ -3928,25 +3961,25 @@
         <v>0.32</v>
       </c>
       <c r="W2" s="9">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="X2" s="8">
-        <v>0.0003</v>
+        <v>0.0008</v>
       </c>
       <c r="Y2" s="7">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="Z2" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AA2" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AB2" s="7">
-        <v>12.86</v>
+        <v>1.98</v>
       </c>
       <c r="AC2" s="7">
-        <v>12.86</v>
+        <v>2.21</v>
       </c>
       <c r="AD2" s="7">
         <v>19.98</v>
@@ -3973,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="AL2" s="7">
-        <v>12.86</v>
+        <v>19.85</v>
       </c>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="90">
@@ -3982,16 +4015,16 @@
         <v>39</v>
       </c>
       <c r="C3" s="7">
-        <v>6.92</v>
+        <v>9.39</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>1.33</v>
+        <v>0.44</v>
       </c>
       <c r="F3" s="7">
-        <v>0.58</v>
+        <v>0.24</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -4000,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>0.001</v>
+        <v>0.0016</v>
       </c>
       <c r="J3" s="8">
-        <v>0.0023</v>
+        <v>0.0018</v>
       </c>
       <c r="K3" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L3" s="7">
         <v>0</v>
@@ -4018,16 +4051,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="9">
-        <v>5192</v>
+        <v>21486</v>
       </c>
       <c r="P3" s="9">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="R3" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3" s="9">
         <v>0</v>
@@ -4039,28 +4072,28 @@
         <v>0</v>
       </c>
       <c r="V3" s="7">
-        <v>1.38</v>
+        <v>0.28</v>
       </c>
       <c r="W3" s="9">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="X3" s="8">
-        <v>0.0021</v>
+        <v>0.0018</v>
       </c>
       <c r="Y3" s="7">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AB3" s="7">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AC3" s="7">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AD3" s="7">
         <v>0</v>
@@ -4096,112 +4129,112 @@
         <v>40</v>
       </c>
       <c r="C4" s="7">
-        <v>6.6</v>
+        <v>8.99</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>22.98</v>
       </c>
       <c r="E4" s="7">
-        <v>0.47</v>
+        <v>1.22</v>
       </c>
       <c r="F4" s="7">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
       <c r="G4" s="6">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="H4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="8">
         <v>0.0018</v>
       </c>
       <c r="J4" s="8">
-        <v>0.001</v>
+        <v>0.0065</v>
       </c>
       <c r="K4" s="8">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="L4" s="7">
-        <v>0</v>
+        <v>8.99</v>
       </c>
       <c r="M4" s="6">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="N4" s="8">
         <v>0</v>
       </c>
       <c r="O4" s="9">
-        <v>14067</v>
+        <v>7358</v>
       </c>
       <c r="P4" s="9">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="9">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="R4" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="9">
         <v>0</v>
       </c>
       <c r="V4" s="7">
-        <v>0.26</v>
+        <v>0.69</v>
       </c>
       <c r="W4" s="9">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="X4" s="8">
-        <v>0.001</v>
+        <v>0.0049</v>
       </c>
       <c r="Y4" s="7">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="Z4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AB4" s="7">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AC4" s="7">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AD4" s="7">
-        <v>0</v>
+        <v>22.98</v>
       </c>
       <c r="AE4" s="7">
-        <v>0</v>
+        <v>22.98</v>
       </c>
       <c r="AF4" s="7">
-        <v>0</v>
+        <v>22.98</v>
       </c>
       <c r="AG4" s="6">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AH4" s="6">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AI4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AK4" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AL4" s="7">
-        <v>0</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="90">
@@ -4210,52 +4243,52 @@
         <v>41</v>
       </c>
       <c r="C5" s="7">
-        <v>6.04</v>
+        <v>8.57</v>
       </c>
       <c r="D5" s="7">
         <v>38.96</v>
       </c>
       <c r="E5" s="7">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="F5" s="7">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="G5" s="6">
-        <v>6.45</v>
+        <v>4.55</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <v>0.0037</v>
+        <v>0.0031</v>
       </c>
       <c r="J5" s="8">
-        <v>0.0033</v>
+        <v>0.004</v>
       </c>
       <c r="K5" s="8">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L5" s="7">
-        <v>3.02</v>
+        <v>4.28</v>
       </c>
       <c r="M5" s="6">
-        <v>2.65</v>
+        <v>1.86</v>
       </c>
       <c r="N5" s="8">
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>5080</v>
+        <v>7780</v>
       </c>
       <c r="P5" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="R5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="9">
         <v>2</v>
@@ -4267,28 +4300,28 @@
         <v>0</v>
       </c>
       <c r="V5" s="7">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="W5" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="X5" s="8">
-        <v>0.0033</v>
+        <v>0.0039</v>
       </c>
       <c r="Y5" s="7">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="Z5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA5" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AB5" s="7">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AC5" s="7">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="AD5" s="7">
         <v>15.98</v>
@@ -4309,13 +4342,13 @@
         <v>1</v>
       </c>
       <c r="AJ5" s="8">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="AK5" s="8">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="AL5" s="7">
-        <v>6.04</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="6" spans="1:38" customHeight="1" ht="90">
@@ -4324,16 +4357,16 @@
         <v>42</v>
       </c>
       <c r="C6" s="7">
-        <v>5.99</v>
+        <v>8.55</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="F6" s="7">
-        <v>0.86</v>
+        <v>0.29</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -4342,13 +4375,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>0.0032</v>
+        <v>0.003</v>
       </c>
       <c r="J6" s="8">
-        <v>0.0014</v>
+        <v>0.0039</v>
       </c>
       <c r="K6" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
@@ -4360,16 +4393,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>5025</v>
+        <v>7733</v>
       </c>
       <c r="P6" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="9">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="R6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="9">
         <v>0</v>
@@ -4384,13 +4417,13 @@
         <v>0.37</v>
       </c>
       <c r="W6" s="9">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="X6" s="8">
-        <v>0.0014</v>
+        <v>0.0036</v>
       </c>
       <c r="Y6" s="7">
-        <v>0.86</v>
+        <v>0.31</v>
       </c>
       <c r="Z6" s="9">
         <v>0</v>
@@ -4399,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="7">
-        <v>0</v>
+        <v>8.55</v>
       </c>
       <c r="AC6" s="7">
         <v>0</v>
@@ -4438,52 +4471,52 @@
         <v>43</v>
       </c>
       <c r="C7" s="7">
-        <v>5.96</v>
+        <v>8.47</v>
       </c>
       <c r="D7" s="7">
         <v>15.98</v>
       </c>
       <c r="E7" s="7">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="F7" s="7">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
       <c r="G7" s="6">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>
       </c>
       <c r="I7" s="8">
+        <v>0.0042</v>
+      </c>
+      <c r="J7" s="8">
         <v>0.0049</v>
       </c>
-      <c r="J7" s="8">
-        <v>0.002</v>
-      </c>
       <c r="K7" s="8">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L7" s="7">
-        <v>5.96</v>
+        <v>8.47</v>
       </c>
       <c r="M7" s="6">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="N7" s="8">
         <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>5075</v>
+        <v>7798</v>
       </c>
       <c r="P7" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="9">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="R7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S7" s="9">
         <v>1</v>
@@ -4495,28 +4528,28 @@
         <v>0</v>
       </c>
       <c r="V7" s="7">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="W7" s="9">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="X7" s="8">
-        <v>0.002</v>
+        <v>0.0047</v>
       </c>
       <c r="Y7" s="7">
-        <v>0.6</v>
+        <v>0.23</v>
       </c>
       <c r="Z7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AB7" s="7">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AC7" s="7">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="AD7" s="7">
         <v>15.98</v>
@@ -4528,22 +4561,22 @@
         <v>15.98</v>
       </c>
       <c r="AG7" s="6">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="AH7" s="6">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="AI7" s="9">
         <v>1</v>
       </c>
       <c r="AJ7" s="8">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="AK7" s="8">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="AL7" s="7">
-        <v>5.96</v>
+        <v>8.47</v>
       </c>
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="90">
@@ -4552,16 +4585,16 @@
         <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>5.95</v>
+        <v>8.4</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="F8" s="7">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -4570,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>0.0048</v>
+        <v>0.0037</v>
       </c>
       <c r="J8" s="8">
-        <v>0.0056</v>
+        <v>0.0064</v>
       </c>
       <c r="K8" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
@@ -4588,16 +4621,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="9">
-        <v>5033</v>
+        <v>7653</v>
       </c>
       <c r="P8" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="R8" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8" s="9">
         <v>0</v>
@@ -4609,28 +4642,28 @@
         <v>0</v>
       </c>
       <c r="V8" s="7">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="W8" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="X8" s="8">
-        <v>0.0056</v>
+        <v>0.0061</v>
       </c>
       <c r="Y8" s="7">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="Z8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AB8" s="7">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AC8" s="7">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" s="7">
         <v>0</v>
@@ -4666,16 +4699,16 @@
         <v>45</v>
       </c>
       <c r="C9" s="7">
-        <v>5.9</v>
+        <v>8.24</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
       </c>
       <c r="E9" s="7">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="F9" s="7">
-        <v>0.49</v>
+        <v>0.18</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -4684,13 +4717,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0041</v>
+        <v>0.0044</v>
       </c>
       <c r="J9" s="8">
-        <v>0.0024</v>
+        <v>0.0061</v>
       </c>
       <c r="K9" s="8">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -4702,16 +4735,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>5085</v>
+        <v>7687</v>
       </c>
       <c r="P9" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="R9" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9" s="9">
         <v>0</v>
@@ -4723,28 +4756,28 @@
         <v>0</v>
       </c>
       <c r="V9" s="7">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="W9" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="X9" s="8">
-        <v>0.0024</v>
+        <v>0.0047</v>
       </c>
       <c r="Y9" s="7">
-        <v>0.49</v>
+        <v>0.23</v>
       </c>
       <c r="Z9" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="8">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="AB9" s="7">
-        <v>5.9</v>
+        <v>4.12</v>
       </c>
       <c r="AC9" s="7">
-        <v>5.9</v>
+        <v>4.12</v>
       </c>
       <c r="AD9" s="7">
         <v>0</v>
@@ -4780,16 +4813,16 @@
         <v>46</v>
       </c>
       <c r="C10" s="7">
-        <v>5.89</v>
+        <v>8.2</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
       </c>
       <c r="E10" s="7">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="F10" s="7">
-        <v>0.98</v>
+        <v>0.24</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -4798,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>0.0028</v>
+        <v>0.003</v>
       </c>
       <c r="J10" s="8">
-        <v>0.0013</v>
+        <v>0.0044</v>
       </c>
       <c r="K10" s="8">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="L10" s="7">
         <v>0</v>
@@ -4816,16 +4849,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>4653</v>
+        <v>7646</v>
       </c>
       <c r="P10" s="9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="9">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R10" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S10" s="9">
         <v>0</v>
@@ -4837,28 +4870,28 @@
         <v>0</v>
       </c>
       <c r="V10" s="7">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="W10" s="9">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="X10" s="8">
-        <v>0.0011</v>
+        <v>0.0043</v>
       </c>
       <c r="Y10" s="7">
-        <v>1.18</v>
+        <v>0.25</v>
       </c>
       <c r="Z10" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA10" s="8">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="AB10" s="7">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC10" s="7">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD10" s="7">
         <v>0</v>
@@ -4894,16 +4927,16 @@
         <v>47</v>
       </c>
       <c r="C11" s="7">
-        <v>5.72</v>
+        <v>8.19</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="F11" s="7">
-        <v>0.72</v>
+        <v>0.27</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -4912,13 +4945,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>0.0059</v>
+        <v>0.0027</v>
       </c>
       <c r="J11" s="8">
-        <v>0.0016</v>
+        <v>0.0039</v>
       </c>
       <c r="K11" s="8">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -4930,13 +4963,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <v>5074</v>
+        <v>7782</v>
       </c>
       <c r="P11" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="9">
         <v>30</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>8</v>
       </c>
       <c r="R11" s="9">
         <v>1</v>
@@ -4951,28 +4984,28 @@
         <v>0</v>
       </c>
       <c r="V11" s="7">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="W11" s="9">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="X11" s="8">
-        <v>0.0014</v>
+        <v>0.0036</v>
       </c>
       <c r="Y11" s="7">
-        <v>0.82</v>
+        <v>0.29</v>
       </c>
       <c r="Z11" s="9">
         <v>1</v>
       </c>
       <c r="AA11" s="8">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="AB11" s="7">
-        <v>5.72</v>
+        <v>8.19</v>
       </c>
       <c r="AC11" s="7">
-        <v>5.72</v>
+        <v>8.19</v>
       </c>
       <c r="AD11" s="7">
         <v>0</v>
@@ -5008,16 +5041,16 @@
         <v>48</v>
       </c>
       <c r="C12" s="7">
-        <v>5.71</v>
+        <v>8.14</v>
       </c>
       <c r="D12" s="7">
         <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="F12" s="7">
-        <v>2.86</v>
+        <v>0.48</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -5026,13 +5059,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>0.0034</v>
+        <v>0.0028</v>
       </c>
       <c r="J12" s="8">
-        <v>0.0005</v>
+        <v>0.0024</v>
       </c>
       <c r="K12" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -5044,16 +5077,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="9">
-        <v>4381</v>
+        <v>7099</v>
       </c>
       <c r="P12" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="9">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="R12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="9">
         <v>0</v>
@@ -5065,28 +5098,28 @@
         <v>0</v>
       </c>
       <c r="V12" s="7">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="W12" s="9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="X12" s="8">
-        <v>0.0005</v>
+        <v>0.0023</v>
       </c>
       <c r="Y12" s="7">
-        <v>2.86</v>
+        <v>0.51</v>
       </c>
       <c r="Z12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AB12" s="7">
-        <v>0</v>
+        <v>8.14</v>
       </c>
       <c r="AC12" s="7">
-        <v>0</v>
+        <v>8.14</v>
       </c>
       <c r="AD12" s="7">
         <v>0</v>
@@ -5122,34 +5155,34 @@
         <v>49</v>
       </c>
       <c r="C13" s="7">
-        <v>5.7</v>
+        <v>8.09</v>
       </c>
       <c r="D13" s="7">
-        <v>22.98</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="F13" s="7">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="G13" s="6">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="H13" s="8">
         <v>0</v>
       </c>
       <c r="I13" s="8">
-        <v>0.0052</v>
+        <v>0.0031</v>
       </c>
       <c r="J13" s="8">
         <v>0.0034</v>
       </c>
       <c r="K13" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L13" s="7">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="M13" s="6">
         <v>0</v>
@@ -5158,49 +5191,49 @@
         <v>0</v>
       </c>
       <c r="O13" s="9">
-        <v>4445</v>
+        <v>6542</v>
       </c>
       <c r="P13" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="R13" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="9">
         <v>0</v>
       </c>
       <c r="V13" s="7">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="W13" s="9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X13" s="8">
-        <v>0.0034</v>
+        <v>0.0032</v>
       </c>
       <c r="Y13" s="7">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="Z13" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AB13" s="7">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="AC13" s="7">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="AD13" s="7">
         <v>0</v>
@@ -5221,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="8">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="8">
         <v>0</v>
@@ -5236,16 +5269,16 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>5.66</v>
+        <v>8.08</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
       </c>
       <c r="E14" s="7">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="F14" s="7">
-        <v>2.83</v>
+        <v>0.45</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -5257,7 +5290,7 @@
         <v>0.0039</v>
       </c>
       <c r="J14" s="8">
-        <v>0.0005</v>
+        <v>0.0028</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
@@ -5272,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="9">
-        <v>4386</v>
+        <v>6485</v>
       </c>
       <c r="P14" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="9">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="R14" s="9">
         <v>0</v>
@@ -5293,16 +5326,16 @@
         <v>0</v>
       </c>
       <c r="V14" s="7">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="W14" s="9">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="X14" s="8">
-        <v>0.0005</v>
+        <v>0.0028</v>
       </c>
       <c r="Y14" s="7">
-        <v>2.83</v>
+        <v>0.45</v>
       </c>
       <c r="Z14" s="9">
         <v>0</v>
@@ -5350,34 +5383,34 @@
         <v>51</v>
       </c>
       <c r="C15" s="7">
-        <v>5.62</v>
+        <v>7.9</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>22.98</v>
       </c>
       <c r="E15" s="7">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="F15" s="7">
-        <v>0.8</v>
+        <v>0.22</v>
       </c>
       <c r="G15" s="6">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="H15" s="8">
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="J15" s="8">
-        <v>0.0016</v>
+        <v>0.0053</v>
       </c>
       <c r="K15" s="8">
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="M15" s="6">
         <v>0</v>
@@ -5386,37 +5419,37 @@
         <v>0</v>
       </c>
       <c r="O15" s="9">
-        <v>4494</v>
+        <v>6783</v>
       </c>
       <c r="P15" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="9">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="R15" s="9">
         <v>0</v>
       </c>
       <c r="S15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="9">
         <v>0</v>
       </c>
       <c r="V15" s="7">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="W15" s="9">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="X15" s="8">
-        <v>0.0016</v>
+        <v>0.0053</v>
       </c>
       <c r="Y15" s="7">
-        <v>0.8</v>
+        <v>0.22</v>
       </c>
       <c r="Z15" s="9">
         <v>0</v>
@@ -5449,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AK15" s="8">
         <v>0</v>
@@ -5464,73 +5497,73 @@
         <v>52</v>
       </c>
       <c r="C16" s="7">
-        <v>5.62</v>
+        <v>7.88</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>15.98</v>
       </c>
       <c r="E16" s="7">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="F16" s="7">
-        <v>0.56</v>
+        <v>0.29</v>
       </c>
       <c r="G16" s="6">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="H16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="8">
-        <v>0.0036</v>
+        <v>0.0038</v>
       </c>
       <c r="J16" s="8">
-        <v>0.002</v>
+        <v>0.0041</v>
       </c>
       <c r="K16" s="8">
         <v>0</v>
       </c>
       <c r="L16" s="7">
-        <v>0</v>
+        <v>7.88</v>
       </c>
       <c r="M16" s="6">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="N16" s="8">
         <v>0</v>
       </c>
       <c r="O16" s="9">
-        <v>5035</v>
+        <v>6539</v>
       </c>
       <c r="P16" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="9">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="R16" s="9">
         <v>0</v>
       </c>
       <c r="S16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="9">
         <v>0</v>
       </c>
       <c r="V16" s="7">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="W16" s="9">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="X16" s="8">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="Y16" s="7">
-        <v>0.56</v>
+        <v>0.3</v>
       </c>
       <c r="Z16" s="9">
         <v>0</v>
@@ -5545,31 +5578,31 @@
         <v>0</v>
       </c>
       <c r="AD16" s="7">
-        <v>0</v>
+        <v>15.98</v>
       </c>
       <c r="AE16" s="7">
-        <v>0</v>
+        <v>15.98</v>
       </c>
       <c r="AF16" s="7">
-        <v>0</v>
+        <v>15.98</v>
       </c>
       <c r="AG16" s="6">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH16" s="6">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AI16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AK16" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AL16" s="7">
-        <v>0</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="90">
@@ -5578,16 +5611,16 @@
         <v>53</v>
       </c>
       <c r="C17" s="7">
-        <v>5.36</v>
+        <v>7.22</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
       </c>
       <c r="E17" s="7">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="F17" s="7">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -5596,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <v>0.0046</v>
+        <v>0.0037</v>
       </c>
       <c r="J17" s="8">
-        <v>0.0027</v>
+        <v>0.0061</v>
       </c>
       <c r="K17" s="8">
         <v>0</v>
@@ -5614,13 +5647,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>4123</v>
+        <v>5904</v>
       </c>
       <c r="P17" s="9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="9">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="R17" s="9">
         <v>0</v>
@@ -5635,16 +5668,16 @@
         <v>0</v>
       </c>
       <c r="V17" s="7">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="W17" s="9">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="X17" s="8">
-        <v>0.0022</v>
+        <v>0.0058</v>
       </c>
       <c r="Y17" s="7">
-        <v>0.6</v>
+        <v>0.21</v>
       </c>
       <c r="Z17" s="9">
         <v>0</v>
@@ -5692,16 +5725,16 @@
         <v>54</v>
       </c>
       <c r="C18" s="7">
-        <v>5.09</v>
+        <v>7.01</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="F18" s="7">
-        <v>1.02</v>
+        <v>0.21</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -5710,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="I18" s="8">
-        <v>0.0026</v>
+        <v>0.0032</v>
       </c>
       <c r="J18" s="8">
-        <v>0.0012</v>
+        <v>0.0052</v>
       </c>
       <c r="K18" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L18" s="7">
         <v>0</v>
@@ -5728,16 +5761,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="9">
-        <v>4245</v>
+        <v>6290</v>
       </c>
       <c r="P18" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="9">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="R18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="9">
         <v>0</v>
@@ -5749,16 +5782,16 @@
         <v>0</v>
       </c>
       <c r="V18" s="7">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="W18" s="9">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="X18" s="8">
-        <v>0.0012</v>
+        <v>0.0046</v>
       </c>
       <c r="Y18" s="7">
-        <v>1.02</v>
+        <v>0.24</v>
       </c>
       <c r="Z18" s="9">
         <v>0</v>
@@ -5767,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="7">
-        <v>0</v>
+        <v>7.01</v>
       </c>
       <c r="AC18" s="7">
         <v>0</v>
@@ -5806,16 +5839,16 @@
         <v>55</v>
       </c>
       <c r="C19" s="7">
-        <v>5.04</v>
+        <v>6.78</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="F19" s="7">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -5824,10 +5857,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>0.0031</v>
+        <v>0.0041</v>
       </c>
       <c r="J19" s="8">
-        <v>0.001</v>
+        <v>0.0088</v>
       </c>
       <c r="K19" s="8">
         <v>0</v>
@@ -5842,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>4134</v>
+        <v>6159</v>
       </c>
       <c r="P19" s="9">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="9">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="R19" s="9">
         <v>0</v>
@@ -5863,16 +5896,16 @@
         <v>0</v>
       </c>
       <c r="V19" s="7">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="W19" s="9">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="X19" s="8">
-        <v>0.001</v>
+        <v>0.0071</v>
       </c>
       <c r="Y19" s="7">
-        <v>1.26</v>
+        <v>0.15</v>
       </c>
       <c r="Z19" s="9">
         <v>0</v>
@@ -5920,16 +5953,16 @@
         <v>56</v>
       </c>
       <c r="C20" s="7">
-        <v>5.01</v>
+        <v>6.73</v>
       </c>
       <c r="D20" s="7">
         <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="F20" s="7">
-        <v>0.39</v>
+        <v>0.16</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -5938,10 +5971,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <v>0.0047</v>
+        <v>0.0042</v>
       </c>
       <c r="J20" s="8">
-        <v>0.0031</v>
+        <v>0.0066</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
@@ -5956,13 +5989,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>4232</v>
+        <v>6208</v>
       </c>
       <c r="P20" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="9">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="R20" s="9">
         <v>0</v>
@@ -5977,16 +6010,16 @@
         <v>0</v>
       </c>
       <c r="V20" s="7">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="W20" s="9">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="X20" s="8">
-        <v>0.0031</v>
+        <v>0.0063</v>
       </c>
       <c r="Y20" s="7">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="Z20" s="9">
         <v>0</v>
@@ -6034,16 +6067,16 @@
         <v>57</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>6.69</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
       </c>
       <c r="E21" s="7">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="F21" s="7">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -6052,13 +6085,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="8">
+        <v>0.0031</v>
+      </c>
+      <c r="J21" s="8">
         <v>0.0047</v>
       </c>
-      <c r="J21" s="8">
-        <v>0.0035</v>
-      </c>
       <c r="K21" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L21" s="7">
         <v>0</v>
@@ -6070,16 +6103,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>4292</v>
+        <v>6107</v>
       </c>
       <c r="P21" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="9">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="R21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="9">
         <v>0</v>
@@ -6091,28 +6124,28 @@
         <v>0</v>
       </c>
       <c r="V21" s="7">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="W21" s="9">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="X21" s="8">
-        <v>0.0035</v>
+        <v>0.0047</v>
       </c>
       <c r="Y21" s="7">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="Z21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AB21" s="7">
-        <v>0</v>
+        <v>6.69</v>
       </c>
       <c r="AC21" s="7">
-        <v>0</v>
+        <v>6.69</v>
       </c>
       <c r="AD21" s="7">
         <v>0</v>
@@ -6148,16 +6181,16 @@
         <v>58</v>
       </c>
       <c r="C22" s="7">
-        <v>4.74</v>
+        <v>6.28</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
       </c>
       <c r="E22" s="7">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="F22" s="7">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
@@ -6166,13 +6199,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>0.0047</v>
+        <v>0.005</v>
       </c>
       <c r="J22" s="8">
-        <v>0.003</v>
+        <v>0.0076</v>
       </c>
       <c r="K22" s="8">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -6184,16 +6217,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="9">
-        <v>3619</v>
+        <v>5030</v>
       </c>
       <c r="P22" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="9">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="R22" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22" s="9">
         <v>0</v>
@@ -6205,28 +6238,28 @@
         <v>0</v>
       </c>
       <c r="V22" s="7">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="W22" s="9">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="X22" s="8">
-        <v>0.0028</v>
+        <v>0.0074</v>
       </c>
       <c r="Y22" s="7">
-        <v>0.47</v>
+        <v>0.17</v>
       </c>
       <c r="Z22" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA22" s="8">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="AB22" s="7">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AC22" s="7">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AD22" s="7">
         <v>0</v>
@@ -6262,16 +6295,16 @@
         <v>59</v>
       </c>
       <c r="C23" s="7">
-        <v>4.66</v>
+        <v>6.19</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
       </c>
       <c r="E23" s="7">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="F23" s="7">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
@@ -6280,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>0.0056</v>
+        <v>0.0018</v>
       </c>
       <c r="J23" s="8">
-        <v>0.0043</v>
+        <v>0.0035</v>
       </c>
       <c r="K23" s="8">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -6298,37 +6331,37 @@
         <v>0</v>
       </c>
       <c r="O23" s="9">
-        <v>3959</v>
+        <v>5710</v>
       </c>
       <c r="P23" s="9">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+      <c r="V23" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="W23" s="9">
         <v>1</v>
       </c>
-      <c r="S23" s="9">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9">
-        <v>0</v>
-      </c>
-      <c r="U23" s="9">
-        <v>0</v>
-      </c>
-      <c r="V23" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="W23" s="9">
-        <v>16</v>
-      </c>
       <c r="X23" s="8">
-        <v>0.004</v>
+        <v>0.0002</v>
       </c>
       <c r="Y23" s="7">
-        <v>0.29</v>
+        <v>6.19</v>
       </c>
       <c r="Z23" s="9">
         <v>0</v>
@@ -6337,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="7">
-        <v>4.66</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="7">
         <v>0</v>
@@ -6376,16 +6409,16 @@
         <v>60</v>
       </c>
       <c r="C24" s="7">
-        <v>4.56</v>
+        <v>6.19</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
       </c>
       <c r="E24" s="7">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="F24" s="7">
-        <v>1.52</v>
+        <v>0.14</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
@@ -6394,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <v>0.0018</v>
+        <v>0.0042</v>
       </c>
       <c r="J24" s="8">
-        <v>0.0008</v>
+        <v>0.0079</v>
       </c>
       <c r="K24" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -6412,16 +6445,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="9">
-        <v>3876</v>
+        <v>5696</v>
       </c>
       <c r="P24" s="9">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="Q24" s="9">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="R24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="9">
         <v>0</v>
@@ -6433,16 +6466,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="7">
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
       <c r="W24" s="9">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="X24" s="8">
-        <v>0</v>
+        <v>0.0072</v>
       </c>
       <c r="Y24" s="7">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z24" s="9">
         <v>0</v>
@@ -6451,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="7">
-        <v>0</v>
+        <v>6.19</v>
       </c>
       <c r="AC24" s="7">
         <v>0</v>
@@ -6490,16 +6523,16 @@
         <v>61</v>
       </c>
       <c r="C25" s="7">
-        <v>4.56</v>
+        <v>6.08</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
       </c>
       <c r="E25" s="7">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="F25" s="7">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
@@ -6508,10 +6541,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>0.0026</v>
+        <v>0.002</v>
       </c>
       <c r="J25" s="8">
-        <v>0.0034</v>
+        <v>0.0048</v>
       </c>
       <c r="K25" s="8">
         <v>0</v>
@@ -6526,13 +6559,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="9">
-        <v>3836</v>
+        <v>5616</v>
       </c>
       <c r="P25" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="9">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="R25" s="9">
         <v>0</v>
@@ -6547,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="7">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
       <c r="W25" s="9">
         <v>0</v>
@@ -6604,16 +6637,16 @@
         <v>62</v>
       </c>
       <c r="C26" s="7">
-        <v>4.44</v>
+        <v>6.02</v>
       </c>
       <c r="D26" s="7">
         <v>0</v>
       </c>
       <c r="E26" s="7">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="F26" s="7">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
@@ -6622,10 +6655,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="8">
-        <v>0.0036</v>
+        <v>0.0027</v>
       </c>
       <c r="J26" s="8">
-        <v>0.0028</v>
+        <v>0.0062</v>
       </c>
       <c r="K26" s="8">
         <v>0</v>
@@ -6640,13 +6673,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="9">
-        <v>3887</v>
+        <v>5845</v>
       </c>
       <c r="P26" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q26" s="9">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="R26" s="9">
         <v>0</v>
@@ -6661,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="7">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="W26" s="9">
         <v>0</v>
@@ -6718,16 +6751,16 @@
         <v>63</v>
       </c>
       <c r="C27" s="7">
-        <v>4.4</v>
+        <v>6.01</v>
       </c>
       <c r="D27" s="7">
         <v>0</v>
       </c>
       <c r="E27" s="7">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="F27" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
@@ -6736,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>0.003</v>
+        <v>0.0025</v>
       </c>
       <c r="J27" s="8">
-        <v>0.0027</v>
+        <v>0.0053</v>
       </c>
       <c r="K27" s="8">
         <v>0</v>
@@ -6754,13 +6787,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="9">
-        <v>4034</v>
+        <v>5629</v>
       </c>
       <c r="P27" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q27" s="9">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="R27" s="9">
         <v>0</v>
@@ -6775,16 +6808,16 @@
         <v>0</v>
       </c>
       <c r="V27" s="7">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="W27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="Y27" s="7">
-        <v>0</v>
+        <v>6.01</v>
       </c>
       <c r="Z27" s="9">
         <v>0</v>
@@ -6832,16 +6865,16 @@
         <v>64</v>
       </c>
       <c r="C28" s="7">
-        <v>4.08</v>
+        <v>5.89</v>
       </c>
       <c r="D28" s="7">
         <v>0</v>
       </c>
       <c r="E28" s="7">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="F28" s="7">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
@@ -6850,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <v>0.0042</v>
+        <v>0.0034</v>
       </c>
       <c r="J28" s="8">
-        <v>0.0051</v>
+        <v>0.0089</v>
       </c>
       <c r="K28" s="8">
         <v>0</v>
@@ -6868,13 +6901,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="9">
-        <v>2145</v>
+        <v>3251</v>
       </c>
       <c r="P28" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="9">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="R28" s="9">
         <v>0</v>
@@ -6889,16 +6922,16 @@
         <v>0</v>
       </c>
       <c r="V28" s="7">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="W28" s="9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X28" s="8">
-        <v>0.0042</v>
+        <v>0.0046</v>
       </c>
       <c r="Y28" s="7">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="Z28" s="9">
         <v>0</v>
@@ -6946,34 +6979,34 @@
         <v>65</v>
       </c>
       <c r="C29" s="7">
-        <v>3.99</v>
+        <v>5.88</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>47.94</v>
       </c>
       <c r="E29" s="7">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="F29" s="7">
-        <v>1.33</v>
+        <v>0.35</v>
       </c>
       <c r="G29" s="6">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="H29" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="8">
-        <v>0.0048</v>
+        <v>0.0034</v>
       </c>
       <c r="J29" s="8">
-        <v>0.0014</v>
+        <v>0.0052</v>
       </c>
       <c r="K29" s="8">
         <v>0</v>
       </c>
       <c r="L29" s="7">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="M29" s="6">
         <v>0</v>
@@ -6982,37 +7015,37 @@
         <v>0</v>
       </c>
       <c r="O29" s="9">
-        <v>2094</v>
+        <v>3275</v>
       </c>
       <c r="P29" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="9">
+        <v>17</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>1</v>
+      </c>
+      <c r="T29" s="9">
         <v>3</v>
       </c>
-      <c r="R29" s="9">
-        <v>0</v>
-      </c>
-      <c r="S29" s="9">
-        <v>0</v>
-      </c>
-      <c r="T29" s="9">
-        <v>0</v>
-      </c>
       <c r="U29" s="9">
         <v>0</v>
       </c>
       <c r="V29" s="7">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="W29" s="9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="X29" s="8">
-        <v>0.001</v>
+        <v>0.0034</v>
       </c>
       <c r="Y29" s="7">
-        <v>1.99</v>
+        <v>0.53</v>
       </c>
       <c r="Z29" s="9">
         <v>0</v>
@@ -7030,13 +7063,13 @@
         <v>0</v>
       </c>
       <c r="AE29" s="7">
-        <v>0</v>
+        <v>47.94</v>
       </c>
       <c r="AF29" s="7">
         <v>0</v>
       </c>
       <c r="AG29" s="6">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="AH29" s="6">
         <v>0</v>
@@ -7045,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AK29" s="8">
         <v>0</v>
@@ -7060,112 +7093,112 @@
         <v>66</v>
       </c>
       <c r="C30" s="7">
-        <v>3.94</v>
+        <v>5.46</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>141.84</v>
       </c>
       <c r="E30" s="7">
-        <v>1.32</v>
+        <v>0.57</v>
       </c>
       <c r="F30" s="7">
-        <v>1.97</v>
+        <v>0.09</v>
       </c>
       <c r="G30" s="6">
-        <v>0</v>
+        <v>25.98</v>
       </c>
       <c r="H30" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="8">
-        <v>0.0013</v>
+        <v>0.0009</v>
       </c>
       <c r="J30" s="8">
+        <v>0.0065</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0.001</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="M30" s="6">
+        <v>6.22</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>9633</v>
+      </c>
+      <c r="P30" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>63</v>
+      </c>
+      <c r="R30" s="9">
+        <v>10</v>
+      </c>
+      <c r="S30" s="9">
+        <v>7</v>
+      </c>
+      <c r="T30" s="9">
+        <v>8</v>
+      </c>
+      <c r="U30" s="9">
+        <v>0</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="W30" s="9">
+        <v>38</v>
+      </c>
+      <c r="X30" s="8">
+        <v>0.0039</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>0.0004</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>1.36</v>
+      </c>
+      <c r="AD30" s="7">
+        <v>33.96</v>
+      </c>
+      <c r="AE30" s="7">
+        <v>141.84</v>
+      </c>
+      <c r="AF30" s="7">
+        <v>33.96</v>
+      </c>
+      <c r="AG30" s="6">
+        <v>25.98</v>
+      </c>
+      <c r="AH30" s="6">
+        <v>6.22</v>
+      </c>
+      <c r="AI30" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="8">
         <v>0.0007</v>
       </c>
-      <c r="K30" s="8">
-        <v>0.0003</v>
-      </c>
-      <c r="L30" s="7">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="8">
-        <v>0</v>
-      </c>
-      <c r="O30" s="9">
-        <v>2979</v>
-      </c>
-      <c r="P30" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>2</v>
-      </c>
-      <c r="R30" s="9">
-        <v>1</v>
-      </c>
-      <c r="S30" s="9">
-        <v>0</v>
-      </c>
-      <c r="T30" s="9">
-        <v>0</v>
-      </c>
-      <c r="U30" s="9">
-        <v>0</v>
-      </c>
-      <c r="V30" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="W30" s="9">
-        <v>0</v>
-      </c>
-      <c r="X30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>0.0003</v>
-      </c>
-      <c r="AB30" s="7">
-        <v>3.94</v>
-      </c>
-      <c r="AC30" s="7">
-        <v>3.94</v>
-      </c>
-      <c r="AD30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="8">
-        <v>0</v>
-      </c>
       <c r="AK30" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AL30" s="7">
-        <v>0</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="31" spans="1:38" customHeight="1" ht="90">
@@ -7174,16 +7207,16 @@
         <v>67</v>
       </c>
       <c r="C31" s="7">
-        <v>3.72</v>
+        <v>5.2</v>
       </c>
       <c r="D31" s="7">
         <v>0</v>
       </c>
       <c r="E31" s="7">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="F31" s="7">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -7192,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <v>0.0048</v>
+        <v>0.004</v>
       </c>
       <c r="J31" s="8">
-        <v>0.0028</v>
+        <v>0.0064</v>
       </c>
       <c r="K31" s="8">
         <v>0</v>
@@ -7210,13 +7243,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="9">
-        <v>2908</v>
+        <v>4693</v>
       </c>
       <c r="P31" s="9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="9">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="R31" s="9">
         <v>0</v>
@@ -7288,16 +7321,16 @@
         <v>68</v>
       </c>
       <c r="C32" s="7">
-        <v>3.54</v>
+        <v>5.08</v>
       </c>
       <c r="D32" s="7">
         <v>0</v>
       </c>
       <c r="E32" s="7">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="F32" s="7">
-        <v>1.18</v>
+        <v>1.02</v>
       </c>
       <c r="G32" s="6">
         <v>0</v>
@@ -7306,13 +7339,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="8">
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="J32" s="8">
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="K32" s="8">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="L32" s="7">
         <v>0</v>
@@ -7324,16 +7357,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="9">
-        <v>2832</v>
+        <v>4110</v>
       </c>
       <c r="P32" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R32" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S32" s="9">
         <v>0</v>
@@ -7345,28 +7378,28 @@
         <v>0</v>
       </c>
       <c r="V32" s="7">
-        <v>1.18</v>
+        <v>1.02</v>
       </c>
       <c r="W32" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X32" s="8">
-        <v>0.0011</v>
+        <v>0.0005</v>
       </c>
       <c r="Y32" s="7">
-        <v>1.18</v>
+        <v>2.54</v>
       </c>
       <c r="Z32" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA32" s="8">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="AB32" s="7">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AC32" s="7">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AD32" s="7">
         <v>0</v>
@@ -7402,112 +7435,112 @@
         <v>69</v>
       </c>
       <c r="C33" s="7">
-        <v>3.54</v>
+        <v>4.84</v>
       </c>
       <c r="D33" s="7">
-        <v>87.9</v>
+        <v>33.95</v>
       </c>
       <c r="E33" s="7">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="F33" s="7">
-        <v>0.88</v>
+        <v>0.19</v>
       </c>
       <c r="G33" s="6">
-        <v>24.83</v>
+        <v>7.01</v>
       </c>
       <c r="H33" s="8">
         <v>1</v>
       </c>
       <c r="I33" s="8">
+        <v>0.0007</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.0035</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0.0001</v>
+      </c>
+      <c r="L33" s="7">
+        <v>1.61</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>7497</v>
+      </c>
+      <c r="P33" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>26</v>
+      </c>
+      <c r="R33" s="9">
+        <v>1</v>
+      </c>
+      <c r="S33" s="9">
+        <v>3</v>
+      </c>
+      <c r="T33" s="9">
+        <v>3</v>
+      </c>
+      <c r="U33" s="9">
+        <v>0</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="W33" s="9">
+        <v>7</v>
+      </c>
+      <c r="X33" s="8">
         <v>0.0009</v>
       </c>
-      <c r="J33" s="8">
-        <v>0.0005</v>
-      </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="M33" s="6">
-        <v>9.59</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
-      <c r="O33" s="9">
-        <v>8191</v>
-      </c>
-      <c r="P33" s="9">
-        <v>7</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>4</v>
-      </c>
-      <c r="R33" s="9">
-        <v>0</v>
-      </c>
-      <c r="S33" s="9">
-        <v>4</v>
-      </c>
-      <c r="T33" s="9">
-        <v>5</v>
-      </c>
-      <c r="U33" s="9">
-        <v>0</v>
-      </c>
-      <c r="V33" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="W33" s="9">
-        <v>3</v>
-      </c>
-      <c r="X33" s="8">
+      <c r="Y33" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>4.84</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>33.95</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>7.01</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="8">
         <v>0.0004</v>
       </c>
-      <c r="Y33" s="7">
-        <v>1.18</v>
-      </c>
-      <c r="Z33" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="7">
-        <v>33.96</v>
-      </c>
-      <c r="AE33" s="7">
-        <v>87.9</v>
-      </c>
-      <c r="AF33" s="7">
-        <v>33.96</v>
-      </c>
-      <c r="AG33" s="6">
-        <v>24.83</v>
-      </c>
-      <c r="AH33" s="6">
-        <v>9.59</v>
-      </c>
-      <c r="AI33" s="9">
-        <v>2</v>
-      </c>
-      <c r="AJ33" s="8">
-        <v>0.0005</v>
-      </c>
       <c r="AK33" s="8">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="7">
-        <v>1.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:38" customHeight="1" ht="90">
@@ -7516,34 +7549,34 @@
         <v>70</v>
       </c>
       <c r="C34" s="7">
-        <v>3.46</v>
+        <v>4.71</v>
       </c>
       <c r="D34" s="7">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7">
-        <v>1.79</v>
+        <v>1.18</v>
       </c>
       <c r="F34" s="7">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="G34" s="6">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="H34" s="8">
         <v>0</v>
       </c>
       <c r="I34" s="8">
-        <v>0.0021</v>
+        <v>0.0005</v>
       </c>
       <c r="J34" s="8">
-        <v>0.0021</v>
+        <v>0.0033</v>
       </c>
       <c r="K34" s="8">
         <v>0</v>
       </c>
       <c r="L34" s="7">
-        <v>3.46</v>
+        <v>0</v>
       </c>
       <c r="M34" s="6">
         <v>0</v>
@@ -7552,37 +7585,37 @@
         <v>0</v>
       </c>
       <c r="O34" s="9">
-        <v>1929</v>
+        <v>3975</v>
       </c>
       <c r="P34" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R34" s="9">
         <v>0</v>
       </c>
       <c r="S34" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="9">
         <v>0</v>
       </c>
       <c r="V34" s="7">
-        <v>0.86</v>
+        <v>2.36</v>
       </c>
       <c r="W34" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X34" s="8">
-        <v>0.0021</v>
+        <v>0.0015</v>
       </c>
       <c r="Y34" s="7">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="Z34" s="9">
         <v>0</v>
@@ -7615,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="8">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="8">
         <v>0</v>
@@ -7630,97 +7663,97 @@
         <v>71</v>
       </c>
       <c r="C35" s="7">
-        <v>3.33</v>
+        <v>4.62</v>
       </c>
       <c r="D35" s="7">
-        <v>33.95</v>
+        <v>9.99</v>
       </c>
       <c r="E35" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="G35" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.003</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.0117</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0.0038</v>
+      </c>
+      <c r="L35" s="7">
+        <v>4.62</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>2644</v>
+      </c>
+      <c r="P35" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>31</v>
+      </c>
+      <c r="R35" s="9">
+        <v>10</v>
+      </c>
+      <c r="S35" s="9">
+        <v>1</v>
+      </c>
+      <c r="T35" s="9">
+        <v>1</v>
+      </c>
+      <c r="U35" s="9">
+        <v>0</v>
+      </c>
+      <c r="V35" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="W35" s="9">
+        <v>30</v>
+      </c>
+      <c r="X35" s="8">
+        <v>0.0113</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>9</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>0.0034</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="AC35" s="7">
         <v>0.51</v>
       </c>
-      <c r="F35" s="7">
-        <v>0.56</v>
-      </c>
-      <c r="G35" s="6">
-        <v>10.2</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0.0009</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0.0009</v>
-      </c>
-      <c r="K35" s="8">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7">
-        <v>1.11</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="8">
-        <v>0</v>
-      </c>
-      <c r="O35" s="9">
-        <v>6549</v>
-      </c>
-      <c r="P35" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>6</v>
-      </c>
-      <c r="R35" s="9">
-        <v>0</v>
-      </c>
-      <c r="S35" s="9">
-        <v>3</v>
-      </c>
-      <c r="T35" s="9">
-        <v>3</v>
-      </c>
-      <c r="U35" s="9">
-        <v>0</v>
-      </c>
-      <c r="V35" s="7">
-        <v>0.56</v>
-      </c>
-      <c r="W35" s="9">
-        <v>1</v>
-      </c>
-      <c r="X35" s="8">
-        <v>0.0002</v>
-      </c>
-      <c r="Y35" s="7">
-        <v>3.33</v>
-      </c>
-      <c r="Z35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="7">
-        <v>0</v>
-      </c>
       <c r="AD35" s="7">
         <v>0</v>
       </c>
       <c r="AE35" s="7">
-        <v>33.95</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="7">
         <v>0</v>
       </c>
       <c r="AG35" s="6">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="6">
         <v>0</v>
@@ -7729,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="8">
-        <v>0.0005</v>
+        <v>0.0004</v>
       </c>
       <c r="AK35" s="8">
         <v>0</v>
@@ -7744,112 +7777,112 @@
         <v>72</v>
       </c>
       <c r="C36" s="7">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="D36" s="7">
-        <v>55.94</v>
+        <v>75.92</v>
       </c>
       <c r="E36" s="7">
-        <v>0.78</v>
+        <v>0.94</v>
       </c>
       <c r="F36" s="7">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="G36" s="6">
-        <v>18.65</v>
+        <v>16.5</v>
       </c>
       <c r="H36" s="8">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="I36" s="8">
-        <v>0.0021</v>
+        <v>0.0027</v>
       </c>
       <c r="J36" s="8">
-        <v>0.0026</v>
+        <v>0.0071</v>
       </c>
       <c r="K36" s="8">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L36" s="7">
+        <v>1.15</v>
+      </c>
+      <c r="M36" s="6">
+        <v>8.69</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>4902</v>
+      </c>
+      <c r="P36" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>35</v>
+      </c>
+      <c r="R36" s="9">
+        <v>2</v>
+      </c>
+      <c r="S36" s="9">
+        <v>4</v>
+      </c>
+      <c r="T36" s="9">
+        <v>4</v>
+      </c>
+      <c r="U36" s="9">
+        <v>0</v>
+      </c>
+      <c r="V36" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="W36" s="9">
+        <v>26</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0.0053</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="Z36" s="9">
         <v>1</v>
       </c>
-      <c r="M36" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="N36" s="8">
-        <v>0</v>
-      </c>
-      <c r="O36" s="9">
-        <v>3847</v>
-      </c>
-      <c r="P36" s="9">
-        <v>8</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>10</v>
-      </c>
-      <c r="R36" s="9">
-        <v>0</v>
-      </c>
-      <c r="S36" s="9">
-        <v>3</v>
-      </c>
-      <c r="T36" s="9">
-        <v>3</v>
-      </c>
-      <c r="U36" s="9">
-        <v>0</v>
-      </c>
-      <c r="V36" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="W36" s="9">
-        <v>10</v>
-      </c>
-      <c r="X36" s="8">
-        <v>0.0026</v>
-      </c>
-      <c r="Y36" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="Z36" s="9">
-        <v>0</v>
-      </c>
       <c r="AA36" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AB36" s="7">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC36" s="7">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AD36" s="7">
-        <v>19.98</v>
+        <v>39.96</v>
       </c>
       <c r="AE36" s="7">
-        <v>19.98</v>
+        <v>39.96</v>
       </c>
       <c r="AF36" s="7">
-        <v>19.98</v>
+        <v>39.96</v>
       </c>
       <c r="AG36" s="6">
-        <v>6.66</v>
+        <v>8.69</v>
       </c>
       <c r="AH36" s="6">
-        <v>6.66</v>
+        <v>8.69</v>
       </c>
       <c r="AI36" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ36" s="8">
         <v>0.0008</v>
       </c>
       <c r="AK36" s="8">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="AL36" s="7">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="90">
@@ -7858,16 +7891,16 @@
         <v>73</v>
       </c>
       <c r="C37" s="7">
-        <v>2.98</v>
+        <v>4.32</v>
       </c>
       <c r="D37" s="7">
         <v>0</v>
       </c>
       <c r="E37" s="7">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="F37" s="7">
-        <v>2.98</v>
+        <v>0.62</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -7876,13 +7909,13 @@
         <v>0</v>
       </c>
       <c r="I37" s="8">
-        <v>0.0019</v>
+        <v>0.0024</v>
       </c>
       <c r="J37" s="8">
-        <v>0.0003</v>
+        <v>0.0014</v>
       </c>
       <c r="K37" s="8">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="L37" s="7">
         <v>0</v>
@@ -7894,13 +7927,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="9">
-        <v>3774</v>
+        <v>5022</v>
       </c>
       <c r="P37" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="9">
         <v>7</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>1</v>
       </c>
       <c r="R37" s="9">
         <v>1</v>
@@ -7915,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="7">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="W37" s="9">
         <v>0</v>
@@ -7933,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="7">
-        <v>2.98</v>
+        <v>4.32</v>
       </c>
       <c r="AC37" s="7">
         <v>0</v>
@@ -7972,52 +8005,52 @@
         <v>74</v>
       </c>
       <c r="C38" s="7">
-        <v>2.31</v>
+        <v>3.94</v>
       </c>
       <c r="D38" s="7">
-        <v>36.77</v>
+        <v>25.97</v>
       </c>
       <c r="E38" s="7">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="F38" s="7">
-        <v>0.77</v>
+        <v>0.13</v>
       </c>
       <c r="G38" s="6">
-        <v>15.92</v>
+        <v>6.59</v>
       </c>
       <c r="H38" s="8">
         <v>1</v>
       </c>
       <c r="I38" s="8">
-        <v>0.0017</v>
+        <v>0.0021</v>
       </c>
       <c r="J38" s="8">
-        <v>0.0013</v>
+        <v>0.0092</v>
       </c>
       <c r="K38" s="8">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="L38" s="7">
-        <v>1.16</v>
+        <v>1.97</v>
       </c>
       <c r="M38" s="6">
-        <v>15.92</v>
+        <v>5.07</v>
       </c>
       <c r="N38" s="8">
         <v>0</v>
       </c>
       <c r="O38" s="9">
-        <v>2309</v>
+        <v>3363</v>
       </c>
       <c r="P38" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>31</v>
+      </c>
+      <c r="R38" s="9">
         <v>4</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>3</v>
-      </c>
-      <c r="R38" s="9">
-        <v>0</v>
       </c>
       <c r="S38" s="9">
         <v>2</v>
@@ -8029,55 +8062,55 @@
         <v>0</v>
       </c>
       <c r="V38" s="7">
-        <v>0.58</v>
+        <v>0.56</v>
       </c>
       <c r="W38" s="9">
+        <v>10</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0.003</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="Z38" s="9">
         <v>3</v>
       </c>
-      <c r="X38" s="8">
-        <v>0.0013</v>
-      </c>
-      <c r="Y38" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="Z38" s="9">
-        <v>0</v>
-      </c>
       <c r="AA38" s="8">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="AB38" s="7">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AC38" s="7">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AD38" s="7">
-        <v>36.77</v>
+        <v>19.98</v>
       </c>
       <c r="AE38" s="7">
-        <v>36.77</v>
+        <v>25.97</v>
       </c>
       <c r="AF38" s="7">
-        <v>36.77</v>
+        <v>19.98</v>
       </c>
       <c r="AG38" s="6">
-        <v>15.92</v>
+        <v>6.59</v>
       </c>
       <c r="AH38" s="6">
-        <v>15.92</v>
+        <v>5.07</v>
       </c>
       <c r="AI38" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="8">
-        <v>0.0009</v>
+        <v>0.0006</v>
       </c>
       <c r="AK38" s="8">
-        <v>0.0009</v>
+        <v>0.0003</v>
       </c>
       <c r="AL38" s="7">
-        <v>1.16</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="39" spans="1:38" customHeight="1" ht="90">
@@ -8086,112 +8119,112 @@
         <v>75</v>
       </c>
       <c r="C39" s="7">
-        <v>2.29</v>
+        <v>3.93</v>
       </c>
       <c r="D39" s="7">
-        <v>11.99</v>
+        <v>56.75</v>
       </c>
       <c r="E39" s="7">
-        <v>1.82</v>
+        <v>1.15</v>
       </c>
       <c r="F39" s="7">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="G39" s="6">
-        <v>5.24</v>
+        <v>14.44</v>
       </c>
       <c r="H39" s="8">
         <v>1</v>
       </c>
       <c r="I39" s="8">
-        <v>0.0048</v>
+        <v>0.0024</v>
       </c>
       <c r="J39" s="8">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="K39" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="L39" s="7">
-        <v>2.29</v>
+        <v>1.31</v>
       </c>
       <c r="M39" s="6">
-        <v>0</v>
+        <v>14.44</v>
       </c>
       <c r="N39" s="8">
         <v>0</v>
       </c>
       <c r="O39" s="9">
-        <v>1259</v>
+        <v>3403</v>
       </c>
       <c r="P39" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q39" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R39" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T39" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U39" s="9">
         <v>0</v>
       </c>
       <c r="V39" s="7">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
       <c r="W39" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X39" s="8">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="Y39" s="7">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="Z39" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AB39" s="7">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AC39" s="7">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AD39" s="7">
-        <v>0</v>
+        <v>56.75</v>
       </c>
       <c r="AE39" s="7">
-        <v>11.99</v>
+        <v>56.75</v>
       </c>
       <c r="AF39" s="7">
-        <v>0</v>
+        <v>56.75</v>
       </c>
       <c r="AG39" s="6">
-        <v>5.24</v>
+        <v>14.44</v>
       </c>
       <c r="AH39" s="6">
-        <v>0</v>
+        <v>14.44</v>
       </c>
       <c r="AI39" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ39" s="8">
-        <v>0.0008</v>
+        <v>0.0009</v>
       </c>
       <c r="AK39" s="8">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="AL39" s="7">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="40" spans="1:38" customHeight="1" ht="90">
@@ -8200,52 +8233,52 @@
         <v>76</v>
       </c>
       <c r="C40" s="7">
-        <v>2.22</v>
+        <v>2.88</v>
       </c>
       <c r="D40" s="7">
         <v>18.98</v>
       </c>
       <c r="E40" s="7">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="F40" s="7">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="G40" s="6">
-        <v>8.55</v>
+        <v>6.59</v>
       </c>
       <c r="H40" s="8">
         <v>1</v>
       </c>
       <c r="I40" s="8">
-        <v>0.0048</v>
+        <v>0.0041</v>
       </c>
       <c r="J40" s="8">
-        <v>0.0064</v>
+        <v>0.0111</v>
       </c>
       <c r="K40" s="8">
-        <v>0.0008</v>
+        <v>0.0023</v>
       </c>
       <c r="L40" s="7">
-        <v>2.22</v>
+        <v>2.88</v>
       </c>
       <c r="M40" s="6">
-        <v>8.55</v>
+        <v>6.59</v>
       </c>
       <c r="N40" s="8">
         <v>0</v>
       </c>
       <c r="O40" s="9">
-        <v>1254</v>
+        <v>1708</v>
       </c>
       <c r="P40" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q40" s="9">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="R40" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S40" s="9">
         <v>1</v>
@@ -8257,28 +8290,28 @@
         <v>0</v>
       </c>
       <c r="V40" s="7">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="W40" s="9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="X40" s="8">
-        <v>0.0064</v>
+        <v>0.01</v>
       </c>
       <c r="Y40" s="7">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="Z40" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA40" s="8">
-        <v>0.0008</v>
+        <v>0.0023</v>
       </c>
       <c r="AB40" s="7">
-        <v>2.22</v>
+        <v>0.72</v>
       </c>
       <c r="AC40" s="7">
-        <v>2.22</v>
+        <v>0.72</v>
       </c>
       <c r="AD40" s="7">
         <v>18.98</v>
@@ -8290,22 +8323,22 @@
         <v>18.98</v>
       </c>
       <c r="AG40" s="6">
-        <v>8.55</v>
+        <v>6.59</v>
       </c>
       <c r="AH40" s="6">
-        <v>8.55</v>
+        <v>6.59</v>
       </c>
       <c r="AI40" s="9">
         <v>1</v>
       </c>
       <c r="AJ40" s="8">
-        <v>0.0008</v>
+        <v>0.0006</v>
       </c>
       <c r="AK40" s="8">
-        <v>0.0008</v>
+        <v>0.0006</v>
       </c>
       <c r="AL40" s="7">
-        <v>2.22</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="90">
@@ -8314,34 +8347,34 @@
         <v>77</v>
       </c>
       <c r="C41" s="7">
-        <v>2.21</v>
+        <v>2.87</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>11.99</v>
       </c>
       <c r="E41" s="7">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="F41" s="7">
-        <v>2.21</v>
+        <v>0.13</v>
       </c>
       <c r="G41" s="6">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="H41" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="8">
-        <v>0.0031</v>
+        <v>0.0047</v>
       </c>
       <c r="J41" s="8">
-        <v>0.0008</v>
+        <v>0.013</v>
       </c>
       <c r="K41" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="L41" s="7">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="M41" s="6">
         <v>0</v>
@@ -8350,37 +8383,37 @@
         <v>0</v>
       </c>
       <c r="O41" s="9">
-        <v>1288</v>
+        <v>1692</v>
       </c>
       <c r="P41" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q41" s="9">
+        <v>22</v>
+      </c>
+      <c r="R41" s="9">
         <v>1</v>
       </c>
-      <c r="R41" s="9">
-        <v>0</v>
-      </c>
       <c r="S41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="9">
         <v>0</v>
       </c>
       <c r="V41" s="7">
-        <v>0.55</v>
+        <v>0.36</v>
       </c>
       <c r="W41" s="9">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X41" s="8">
-        <v>0.0008</v>
+        <v>0.0124</v>
       </c>
       <c r="Y41" s="7">
-        <v>2.21</v>
+        <v>0.14</v>
       </c>
       <c r="Z41" s="9">
         <v>0</v>
@@ -8389,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="7">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AC41" s="7">
         <v>0</v>
@@ -8398,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="AE41" s="7">
-        <v>0</v>
+        <v>11.99</v>
       </c>
       <c r="AF41" s="7">
         <v>0</v>
       </c>
       <c r="AG41" s="6">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="AH41" s="6">
         <v>0</v>
@@ -8413,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AK41" s="8">
         <v>0</v>
@@ -8428,112 +8461,112 @@
         <v>78</v>
       </c>
       <c r="C42" s="7">
-        <v>2.18</v>
+        <v>2.76</v>
       </c>
       <c r="D42" s="7">
-        <v>22.98</v>
+        <v>45.96</v>
       </c>
       <c r="E42" s="7">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="F42" s="7">
-        <v>0.73</v>
+        <v>0.15</v>
       </c>
       <c r="G42" s="6">
-        <v>10.54</v>
+        <v>16.65</v>
       </c>
       <c r="H42" s="8">
         <v>1</v>
       </c>
       <c r="I42" s="8">
-        <v>0.0057</v>
+        <v>0.0037</v>
       </c>
       <c r="J42" s="8">
-        <v>0.0025</v>
+        <v>0.011</v>
       </c>
       <c r="K42" s="8">
-        <v>0.0008</v>
+        <v>0.0055</v>
       </c>
       <c r="L42" s="7">
-        <v>2.18</v>
+        <v>1.38</v>
       </c>
       <c r="M42" s="6">
-        <v>10.54</v>
+        <v>16.65</v>
       </c>
       <c r="N42" s="8">
         <v>0</v>
       </c>
       <c r="O42" s="9">
-        <v>1219</v>
+        <v>1636</v>
       </c>
       <c r="P42" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q42" s="9">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="R42" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S42" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U42" s="9">
         <v>0</v>
       </c>
       <c r="V42" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="W42" s="9">
+        <v>18</v>
+      </c>
+      <c r="X42" s="8">
+        <v>0.011</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>9</v>
+      </c>
+      <c r="AA42" s="8">
+        <v>0.0055</v>
+      </c>
+      <c r="AB42" s="7">
         <v>0.31</v>
       </c>
-      <c r="W42" s="9">
-        <v>3</v>
-      </c>
-      <c r="X42" s="8">
-        <v>0.0025</v>
-      </c>
-      <c r="Y42" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="Z42" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="8">
-        <v>0.0008</v>
-      </c>
-      <c r="AB42" s="7">
-        <v>2.18</v>
-      </c>
       <c r="AC42" s="7">
-        <v>2.18</v>
+        <v>0.31</v>
       </c>
       <c r="AD42" s="7">
-        <v>22.98</v>
+        <v>45.96</v>
       </c>
       <c r="AE42" s="7">
-        <v>22.98</v>
+        <v>45.96</v>
       </c>
       <c r="AF42" s="7">
-        <v>22.98</v>
+        <v>45.96</v>
       </c>
       <c r="AG42" s="6">
-        <v>10.54</v>
+        <v>16.65</v>
       </c>
       <c r="AH42" s="6">
-        <v>10.54</v>
+        <v>16.65</v>
       </c>
       <c r="AI42" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ42" s="8">
-        <v>0.0008</v>
+        <v>0.0012</v>
       </c>
       <c r="AK42" s="8">
-        <v>0.0008</v>
+        <v>0.0012</v>
       </c>
       <c r="AL42" s="7">
-        <v>2.18</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="43" spans="1:38" customHeight="1" ht="90">
@@ -8542,34 +8575,34 @@
         <v>79</v>
       </c>
       <c r="C43" s="7">
-        <v>2.17</v>
+        <v>2.74</v>
       </c>
       <c r="D43" s="7">
-        <v>5.99</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7">
-        <v>0.96</v>
+        <v>1.66</v>
       </c>
       <c r="F43" s="7">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G43" s="6">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="H43" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="8">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="J43" s="8">
-        <v>0.0079</v>
+        <v>0.0091</v>
       </c>
       <c r="K43" s="8">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="L43" s="7">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="M43" s="6">
         <v>0</v>
@@ -8578,61 +8611,61 @@
         <v>0</v>
       </c>
       <c r="O43" s="9">
-        <v>2272</v>
+        <v>1647</v>
       </c>
       <c r="P43" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R43" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S43" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="9">
         <v>0</v>
       </c>
       <c r="V43" s="7">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="W43" s="9">
+        <v>14</v>
+      </c>
+      <c r="X43" s="8">
+        <v>0.0085</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="Z43" s="9">
         <v>3</v>
       </c>
-      <c r="X43" s="8">
-        <v>0.0013</v>
-      </c>
-      <c r="Y43" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="Z43" s="9">
-        <v>0</v>
-      </c>
       <c r="AA43" s="8">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="AB43" s="7">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AC43" s="7">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="AD43" s="7">
         <v>0</v>
       </c>
       <c r="AE43" s="7">
-        <v>5.99</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="7">
         <v>0</v>
       </c>
       <c r="AG43" s="6">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="6">
         <v>0</v>
@@ -8641,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="8">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="8">
         <v>0</v>
@@ -8656,34 +8689,34 @@
         <v>80</v>
       </c>
       <c r="C44" s="7">
-        <v>2.16</v>
+        <v>2.74</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="E44" s="7">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="F44" s="7">
-        <v>2.16</v>
+        <v>0.2</v>
       </c>
       <c r="G44" s="6">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="H44" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="8">
-        <v>0</v>
+        <v>0.0036</v>
       </c>
       <c r="J44" s="8">
-        <v>0.0008</v>
+        <v>0.0084</v>
       </c>
       <c r="K44" s="8">
-        <v>0.0008</v>
+        <v>0.0012</v>
       </c>
       <c r="L44" s="7">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="M44" s="6">
         <v>0</v>
@@ -8692,61 +8725,61 @@
         <v>0</v>
       </c>
       <c r="O44" s="9">
-        <v>1262</v>
+        <v>1669</v>
       </c>
       <c r="P44" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q44" s="9">
+        <v>14</v>
+      </c>
+      <c r="R44" s="9">
+        <v>2</v>
+      </c>
+      <c r="S44" s="9">
         <v>1</v>
       </c>
-      <c r="R44" s="9">
+      <c r="T44" s="9">
         <v>1</v>
       </c>
-      <c r="S44" s="9">
-        <v>0</v>
-      </c>
-      <c r="T44" s="9">
-        <v>0</v>
-      </c>
       <c r="U44" s="9">
         <v>0</v>
       </c>
       <c r="V44" s="7">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="W44" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X44" s="8">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="Y44" s="7">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="Z44" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA44" s="8">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="AB44" s="7">
-        <v>2.16</v>
+        <v>1.37</v>
       </c>
       <c r="AC44" s="7">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AD44" s="7">
         <v>0</v>
       </c>
       <c r="AE44" s="7">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="AF44" s="7">
         <v>0</v>
       </c>
       <c r="AG44" s="6">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AH44" s="6">
         <v>0</v>
@@ -8755,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AK44" s="8">
         <v>0</v>
@@ -8770,16 +8803,16 @@
         <v>81</v>
       </c>
       <c r="C45" s="7">
-        <v>2.08</v>
+        <v>2.68</v>
       </c>
       <c r="D45" s="7">
         <v>0</v>
       </c>
       <c r="E45" s="7">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="F45" s="7">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -8788,13 +8821,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="8">
-        <v>0.0041</v>
+        <v>0.0037</v>
       </c>
       <c r="J45" s="8">
-        <v>0.0033</v>
+        <v>0.0067</v>
       </c>
       <c r="K45" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="L45" s="7">
         <v>0</v>
@@ -8806,16 +8839,16 @@
         <v>0</v>
       </c>
       <c r="O45" s="9">
-        <v>1230</v>
+        <v>1630</v>
       </c>
       <c r="P45" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q45" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="9">
         <v>0</v>
@@ -8827,16 +8860,16 @@
         <v>0</v>
       </c>
       <c r="V45" s="7">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="W45" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X45" s="8">
-        <v>0.0033</v>
+        <v>0.0061</v>
       </c>
       <c r="Y45" s="7">
-        <v>0.52</v>
+        <v>0.27</v>
       </c>
       <c r="Z45" s="9">
         <v>0</v>
@@ -8845,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="7">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AC45" s="7">
         <v>0</v>
@@ -8884,16 +8917,16 @@
         <v>82</v>
       </c>
       <c r="C46" s="7">
-        <v>2.02</v>
+        <v>2.62</v>
       </c>
       <c r="D46" s="7">
         <v>0</v>
       </c>
       <c r="E46" s="7">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="F46" s="7">
-        <v>1.01</v>
+        <v>0.26</v>
       </c>
       <c r="G46" s="6">
         <v>0</v>
@@ -8902,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="I46" s="8">
-        <v>0.0049</v>
+        <v>0.0043</v>
       </c>
       <c r="J46" s="8">
-        <v>0.0016</v>
+        <v>0.0061</v>
       </c>
       <c r="K46" s="8">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="L46" s="7">
         <v>0</v>
@@ -8920,16 +8953,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="9">
-        <v>1219</v>
+        <v>1645</v>
       </c>
       <c r="P46" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q46" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R46" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S46" s="9">
         <v>0</v>
@@ -8941,28 +8974,28 @@
         <v>0</v>
       </c>
       <c r="V46" s="7">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="W46" s="9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X46" s="8">
-        <v>0.0016</v>
+        <v>0.0055</v>
       </c>
       <c r="Y46" s="7">
-        <v>1.01</v>
+        <v>0.29</v>
       </c>
       <c r="Z46" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA46" s="8">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="AB46" s="7">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AC46" s="7">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AD46" s="7">
         <v>0</v>
@@ -8998,16 +9031,16 @@
         <v>83</v>
       </c>
       <c r="C47" s="7">
-        <v>0.88</v>
+        <v>1.07</v>
       </c>
       <c r="D47" s="7">
         <v>0</v>
       </c>
       <c r="E47" s="7">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="F47" s="7">
-        <v>0.88</v>
+        <v>0.13</v>
       </c>
       <c r="G47" s="6">
         <v>0</v>
@@ -9016,10 +9049,10 @@
         <v>0</v>
       </c>
       <c r="I47" s="8">
-        <v>0.0036</v>
+        <v>0.0033</v>
       </c>
       <c r="J47" s="8">
-        <v>0.0007</v>
+        <v>0.0053</v>
       </c>
       <c r="K47" s="8">
         <v>0</v>
@@ -9034,13 +9067,13 @@
         <v>0</v>
       </c>
       <c r="O47" s="9">
-        <v>1387</v>
+        <v>1500</v>
       </c>
       <c r="P47" s="9">
         <v>5</v>
       </c>
       <c r="Q47" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R47" s="9">
         <v>0</v>
@@ -9055,16 +9088,16 @@
         <v>0</v>
       </c>
       <c r="V47" s="7">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="W47" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X47" s="8">
-        <v>0.0007</v>
+        <v>0.0027</v>
       </c>
       <c r="Y47" s="7">
-        <v>0.88</v>
+        <v>0.27</v>
       </c>
       <c r="Z47" s="9">
         <v>0</v>
@@ -9112,16 +9145,16 @@
         <v>84</v>
       </c>
       <c r="C48" s="7">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="D48" s="7">
         <v>0</v>
       </c>
       <c r="E48" s="7">
-        <v>0.44</v>
+        <v>1.61</v>
       </c>
       <c r="F48" s="7">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="G48" s="6">
         <v>0</v>
@@ -9130,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="I48" s="8">
-        <v>0.0015</v>
+        <v>0.015</v>
       </c>
       <c r="J48" s="8">
-        <v>0.0015</v>
+        <v>0.015</v>
       </c>
       <c r="K48" s="8">
         <v>0</v>
@@ -9148,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="O48" s="9">
-        <v>683</v>
+        <v>267</v>
       </c>
       <c r="P48" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q48" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R48" s="9">
         <v>0</v>
@@ -9169,16 +9202,16 @@
         <v>0</v>
       </c>
       <c r="V48" s="7">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="W48" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X48" s="8">
-        <v>0</v>
+        <v>0.0112</v>
       </c>
       <c r="Y48" s="7">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Z48" s="9">
         <v>0</v>
@@ -9226,16 +9259,16 @@
         <v>85</v>
       </c>
       <c r="C49" s="7">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
       <c r="D49" s="7">
         <v>0</v>
       </c>
       <c r="E49" s="7">
-        <v>0.41</v>
+        <v>1.63</v>
       </c>
       <c r="F49" s="7">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G49" s="6">
         <v>0</v>
@@ -9244,10 +9277,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="8">
-        <v>0</v>
+        <v>0.0076</v>
       </c>
       <c r="J49" s="8">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="K49" s="8">
         <v>0</v>
@@ -9262,13 +9295,13 @@
         <v>0</v>
       </c>
       <c r="O49" s="9">
-        <v>714</v>
+        <v>263</v>
       </c>
       <c r="P49" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="9">
         <v>0</v>
@@ -9283,16 +9316,16 @@
         <v>0</v>
       </c>
       <c r="V49" s="7">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="W49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" s="8">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="Y49" s="7">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="Z49" s="9">
         <v>0</v>
@@ -9340,13 +9373,13 @@
         <v>86</v>
       </c>
       <c r="C50" s="7">
-        <v>0.29</v>
+        <v>0.42</v>
       </c>
       <c r="D50" s="7">
         <v>0</v>
       </c>
       <c r="E50" s="7">
-        <v>0.42</v>
+        <v>1.71</v>
       </c>
       <c r="F50" s="7">
         <v>0</v>
@@ -9358,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="8">
-        <v>0</v>
+        <v>0.0203</v>
       </c>
       <c r="J50" s="8">
         <v>0</v>
@@ -9376,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="9">
-        <v>698</v>
+        <v>246</v>
       </c>
       <c r="P50" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q50" s="9">
         <v>0</v>
@@ -9397,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="7">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="W50" s="9">
         <v>0</v>
@@ -9454,16 +9487,16 @@
         <v>87</v>
       </c>
       <c r="C51" s="7">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="D51" s="7">
         <v>0</v>
       </c>
       <c r="E51" s="7">
-        <v>0.35</v>
+        <v>1.45</v>
       </c>
       <c r="F51" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G51" s="6">
         <v>0</v>
@@ -9472,10 +9505,10 @@
         <v>0</v>
       </c>
       <c r="I51" s="8">
-        <v>0.0013</v>
+        <v>0.0255</v>
       </c>
       <c r="J51" s="8">
-        <v>0</v>
+        <v>0.0073</v>
       </c>
       <c r="K51" s="8">
         <v>0</v>
@@ -9490,13 +9523,13 @@
         <v>0</v>
       </c>
       <c r="O51" s="9">
-        <v>744</v>
+        <v>275</v>
       </c>
       <c r="P51" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q51" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R51" s="9">
         <v>0</v>
@@ -9511,16 +9544,16 @@
         <v>0</v>
       </c>
       <c r="V51" s="7">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="W51" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X51" s="8">
-        <v>0</v>
+        <v>0.0073</v>
       </c>
       <c r="Y51" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Z51" s="9">
         <v>0</v>
@@ -9568,16 +9601,16 @@
         <v>88</v>
       </c>
       <c r="C52" s="7">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="D52" s="7">
         <v>0</v>
       </c>
       <c r="E52" s="7">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="F52" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G52" s="6">
         <v>0</v>
@@ -9586,10 +9619,10 @@
         <v>0</v>
       </c>
       <c r="I52" s="8">
-        <v>0.0075</v>
+        <v>0.012</v>
       </c>
       <c r="J52" s="8">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="K52" s="8">
         <v>0</v>
@@ -9604,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="O52" s="9">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="P52" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q52" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R52" s="9">
         <v>0</v>
@@ -9625,16 +9658,16 @@
         <v>0</v>
       </c>
       <c r="V52" s="7">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="W52" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X52" s="8">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="Y52" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Z52" s="9">
         <v>0</v>
@@ -9682,16 +9715,16 @@
         <v>89</v>
       </c>
       <c r="C53" s="7">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="D53" s="7">
         <v>0</v>
       </c>
       <c r="E53" s="7">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="F53" s="7">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
@@ -9700,10 +9733,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="8">
-        <v>0</v>
+        <v>0.0126</v>
       </c>
       <c r="J53" s="8">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="K53" s="8">
         <v>0</v>
@@ -9718,13 +9751,13 @@
         <v>0</v>
       </c>
       <c r="O53" s="9">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="P53" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="9">
         <v>0</v>
@@ -9739,16 +9772,16 @@
         <v>0</v>
       </c>
       <c r="V53" s="7">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="W53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" s="8">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="Y53" s="7">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="Z53" s="9">
         <v>0</v>
@@ -9796,13 +9829,13 @@
         <v>90</v>
       </c>
       <c r="C54" s="7">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="D54" s="7">
         <v>0</v>
       </c>
       <c r="E54" s="7">
-        <v>1.55</v>
+        <v>0.41</v>
       </c>
       <c r="F54" s="7">
         <v>0</v>
@@ -9814,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="8">
-        <v>0.0141</v>
+        <v>0</v>
       </c>
       <c r="J54" s="8">
         <v>0</v>
@@ -9832,10 +9865,10 @@
         <v>0</v>
       </c>
       <c r="O54" s="9">
-        <v>142</v>
+        <v>711</v>
       </c>
       <c r="P54" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="9">
         <v>0</v>
@@ -9853,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="7">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="W54" s="9">
         <v>0</v>
@@ -9910,16 +9943,16 @@
         <v>91</v>
       </c>
       <c r="C55" s="7">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="D55" s="7">
         <v>0</v>
       </c>
       <c r="E55" s="7">
-        <v>1.68</v>
+        <v>0.43</v>
       </c>
       <c r="F55" s="7">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="G55" s="6">
         <v>0</v>
@@ -9928,10 +9961,10 @@
         <v>0</v>
       </c>
       <c r="I55" s="8">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="J55" s="8">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="K55" s="8">
         <v>0</v>
@@ -9946,13 +9979,13 @@
         <v>0</v>
       </c>
       <c r="O55" s="9">
-        <v>131</v>
+        <v>676</v>
       </c>
       <c r="P55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="9">
         <v>0</v>
@@ -9967,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="7">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="W55" s="9">
         <v>0</v>
@@ -10024,13 +10057,13 @@
         <v>92</v>
       </c>
       <c r="C56" s="7">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="D56" s="7">
         <v>0</v>
       </c>
       <c r="E56" s="7">
-        <v>1.74</v>
+        <v>0.42</v>
       </c>
       <c r="F56" s="7">
         <v>0</v>
@@ -10042,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="8">
-        <v>0.0248</v>
+        <v>0</v>
       </c>
       <c r="J56" s="8">
         <v>0</v>
@@ -10060,10 +10093,10 @@
         <v>0</v>
       </c>
       <c r="O56" s="9">
-        <v>121</v>
+        <v>691</v>
       </c>
       <c r="P56" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="9">
         <v>0</v>
@@ -10081,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="7">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="W56" s="9">
         <v>0</v>
@@ -10138,16 +10171,16 @@
         <v>93</v>
       </c>
       <c r="C57" s="7">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="D57" s="7">
         <v>0</v>
       </c>
       <c r="E57" s="7">
-        <v>1.89</v>
+        <v>0.35</v>
       </c>
       <c r="F57" s="7">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="G57" s="6">
         <v>0</v>
@@ -10156,10 +10189,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="8">
-        <v>0.0283</v>
+        <v>0.0013</v>
       </c>
       <c r="J57" s="8">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="K57" s="8">
         <v>0</v>
@@ -10174,13 +10207,13 @@
         <v>0</v>
       </c>
       <c r="O57" s="9">
-        <v>106</v>
+        <v>742</v>
       </c>
       <c r="P57" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="9">
         <v>0</v>
@@ -10195,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="7">
-        <v>0.07</v>
+        <v>0.26</v>
       </c>
       <c r="W57" s="9">
         <v>0</v>
@@ -10258,10 +10291,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="7">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F58" s="7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G58" s="6">
         <v>0</v>
@@ -10273,10 +10306,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="8">
-        <v>0</v>
+        <v>0.1935</v>
       </c>
       <c r="K58" s="8">
-        <v>0</v>
+        <v>0.0161</v>
       </c>
       <c r="L58" s="7">
         <v>0</v>
@@ -10288,16 +10321,16 @@
         <v>0</v>
       </c>
       <c r="O58" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P58" s="9">
         <v>0</v>
       </c>
       <c r="Q58" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R58" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="9">
         <v>0</v>
@@ -10327,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC58" s="7">
         <v>0</v>
@@ -10372,10 +10405,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="7">
-        <v>1.79</v>
+        <v>1.09</v>
       </c>
       <c r="F59" s="7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
@@ -10387,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="8">
-        <v>0</v>
+        <v>0.1304</v>
       </c>
       <c r="K59" s="8">
         <v>0</v>
@@ -10402,13 +10435,13 @@
         <v>0</v>
       </c>
       <c r="O59" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="P59" s="9">
         <v>0</v>
       </c>
       <c r="Q59" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R59" s="9">
         <v>0</v>
@@ -10426,13 +10459,13 @@
         <v>0</v>
       </c>
       <c r="W59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" s="8">
-        <v>0</v>
+        <v>0.0217</v>
       </c>
       <c r="Y59" s="7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z59" s="9">
         <v>0</v>
@@ -10480,13 +10513,13 @@
         <v>96</v>
       </c>
       <c r="C60" s="7">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D60" s="7">
         <v>0</v>
       </c>
       <c r="E60" s="7">
-        <v>0.89</v>
+        <v>1.79</v>
       </c>
       <c r="F60" s="7">
         <v>0</v>
@@ -10516,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="P60" s="9">
         <v>0</v>
@@ -10600,10 +10633,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="7">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="F61" s="7">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G61" s="6">
         <v>0</v>
@@ -10612,10 +10645,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="8">
-        <v>0.05</v>
+        <v>0.0455</v>
       </c>
       <c r="J61" s="8">
-        <v>0</v>
+        <v>0.0455</v>
       </c>
       <c r="K61" s="8">
         <v>0</v>
@@ -10630,13 +10663,13 @@
         <v>0</v>
       </c>
       <c r="O61" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P61" s="9">
         <v>1</v>
       </c>
       <c r="Q61" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="9">
         <v>0</v>
@@ -10654,13 +10687,13 @@
         <v>0.04</v>
       </c>
       <c r="W61" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" s="8">
-        <v>0</v>
+        <v>0.0455</v>
       </c>
       <c r="Y61" s="7">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Z61" s="9">
         <v>0</v>
@@ -10717,7 +10750,7 @@
         <v>1.43</v>
       </c>
       <c r="F62" s="7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G62" s="6">
         <v>0</v>
@@ -10729,7 +10762,7 @@
         <v>0.0476</v>
       </c>
       <c r="J62" s="8">
-        <v>0</v>
+        <v>0.1905</v>
       </c>
       <c r="K62" s="8">
         <v>0</v>
@@ -10750,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R62" s="9">
         <v>0</v>
@@ -10768,13 +10801,13 @@
         <v>0.03</v>
       </c>
       <c r="W62" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62" s="8">
-        <v>0</v>
+        <v>0.0476</v>
       </c>
       <c r="Y62" s="7">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Z62" s="9">
         <v>0</v>
@@ -10828,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="7">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="F63" s="7">
         <v>0</v>
@@ -10840,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J63" s="8">
         <v>0</v>
@@ -10858,10 +10891,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P63" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="9">
         <v>0</v>
@@ -10879,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="W63" s="9">
         <v>0</v>
@@ -10942,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="7">
-        <v>0.81</v>
+        <v>1.5</v>
       </c>
       <c r="F64" s="7">
         <v>0</v>
@@ -10954,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J64" s="8">
         <v>0</v>
@@ -10972,10 +11005,10 @@
         <v>0</v>
       </c>
       <c r="O64" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="P64" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="9">
         <v>0</v>
@@ -10993,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="7">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="W64" s="9">
         <v>0</v>
@@ -11056,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="7">
-        <v>1.36</v>
+        <v>0.81</v>
       </c>
       <c r="F65" s="7">
         <v>0</v>
@@ -11086,7 +11119,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="P65" s="9">
         <v>0</v>
@@ -11401,7 +11434,7 @@
         <v>1.33</v>
       </c>
       <c r="F68" s="7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G68" s="6">
         <v>0</v>
@@ -11413,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="8">
-        <v>0</v>
+        <v>0.0667</v>
       </c>
       <c r="K68" s="8">
         <v>0</v>
@@ -11434,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="9">
         <v>0</v>
@@ -11524,13 +11557,13 @@
         <v>0</v>
       </c>
       <c r="I69" s="8">
+        <v>0</v>
+      </c>
+      <c r="J69" s="8">
+        <v>0</v>
+      </c>
+      <c r="K69" s="8">
         <v>0.05</v>
-      </c>
-      <c r="J69" s="8">
-        <v>0</v>
-      </c>
-      <c r="K69" s="8">
-        <v>0</v>
       </c>
       <c r="L69" s="7">
         <v>0</v>
@@ -11545,14 +11578,14 @@
         <v>20</v>
       </c>
       <c r="P69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>0</v>
+      </c>
+      <c r="R69" s="9">
         <v>1</v>
       </c>
-      <c r="Q69" s="9">
-        <v>0</v>
-      </c>
-      <c r="R69" s="9">
-        <v>0</v>
-      </c>
       <c r="S69" s="9">
         <v>0</v>
       </c>
@@ -11563,28 +11596,28 @@
         <v>0</v>
       </c>
       <c r="V69" s="7">
+        <v>0</v>
+      </c>
+      <c r="W69" s="9">
+        <v>0</v>
+      </c>
+      <c r="X69" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AB69" s="7">
         <v>0.02</v>
       </c>
-      <c r="W69" s="9">
-        <v>0</v>
-      </c>
-      <c r="X69" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="7">
-        <v>0</v>
-      </c>
       <c r="AC69" s="7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AD69" s="7">
         <v>0</v>
@@ -11854,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="7">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="F72" s="7">
         <v>0</v>
@@ -11866,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="8">
-        <v>0.125</v>
+        <v>0.1111</v>
       </c>
       <c r="J72" s="8">
         <v>0</v>
@@ -11884,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P72" s="9">
         <v>1</v>
@@ -12340,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" s="9">
         <v>0</v>
@@ -13258,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="Q84" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" s="9">
         <v>0</v>
@@ -13276,7 +13309,7 @@
         <v>0</v>
       </c>
       <c r="W84" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X84" s="8">
         <v>0</v>
@@ -13714,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="Q88" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R88" s="9">
         <v>0</v>
@@ -14698,112 +14731,226 @@
         <v>133</v>
       </c>
       <c r="C97" s="7">
-        <v>208.06</v>
+        <v>0</v>
       </c>
       <c r="D97" s="7">
-        <v>382.39</v>
+        <v>0</v>
       </c>
       <c r="E97" s="7">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F97" s="7">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="G97" s="6">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="H97" s="8">
-        <v>0.6818</v>
+        <v>0</v>
       </c>
       <c r="I97" s="8">
-        <v>0.0024</v>
+        <v>0</v>
       </c>
       <c r="J97" s="8">
-        <v>0.0015</v>
+        <v>0</v>
       </c>
       <c r="K97" s="8">
         <v>0</v>
       </c>
       <c r="L97" s="7">
-        <v>9.46</v>
+        <v>0</v>
       </c>
       <c r="M97" s="6">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="N97" s="8">
         <v>0</v>
       </c>
       <c r="O97" s="9">
-        <v>252796</v>
+        <v>0</v>
       </c>
       <c r="P97" s="9">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="Q97" s="9">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="R97" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S97" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T97" s="9">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="U97" s="9">
+        <v>0</v>
+      </c>
+      <c r="V97" s="7">
+        <v>0</v>
+      </c>
+      <c r="W97" s="9">
+        <v>0</v>
+      </c>
+      <c r="X97" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH97" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK97" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" customHeight="1" ht="90">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" s="7">
+        <v>291.07</v>
+      </c>
+      <c r="D98" s="7">
+        <v>616.14</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G98" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="H98" s="8">
+        <v>0.7879</v>
+      </c>
+      <c r="I98" s="8">
+        <v>0.0022</v>
+      </c>
+      <c r="J98" s="8">
+        <v>0.0038</v>
+      </c>
+      <c r="K98" s="8">
+        <v>0.0003</v>
+      </c>
+      <c r="L98" s="7">
+        <v>8.82</v>
+      </c>
+      <c r="M98" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="N98" s="8">
+        <v>0</v>
+      </c>
+      <c r="O98" s="9">
+        <v>377208</v>
+      </c>
+      <c r="P98" s="9">
+        <v>818</v>
+      </c>
+      <c r="Q98" s="9">
+        <v>1434</v>
+      </c>
+      <c r="R98" s="9">
+        <v>98</v>
+      </c>
+      <c r="S98" s="9">
+        <v>33</v>
+      </c>
+      <c r="T98" s="9">
+        <v>36</v>
+      </c>
+      <c r="U98" s="9">
         <v>1</v>
       </c>
-      <c r="V97" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="W97" s="9">
-        <v>303</v>
-      </c>
-      <c r="X97" s="8">
-        <v>0.0012</v>
-      </c>
-      <c r="Y97" s="7">
-        <v>0.69</v>
-      </c>
-      <c r="Z97" s="9">
-        <v>6</v>
-      </c>
-      <c r="AA97" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB97" s="7">
-        <v>23.12</v>
-      </c>
-      <c r="AC97" s="7">
-        <v>34.68</v>
-      </c>
-      <c r="AD97" s="7">
-        <v>184.61</v>
-      </c>
-      <c r="AE97" s="7">
-        <v>254.52</v>
-      </c>
-      <c r="AF97" s="7">
-        <v>148.65</v>
-      </c>
-      <c r="AG97" s="6">
-        <v>1.22</v>
-      </c>
-      <c r="AH97" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="AI97" s="9">
-        <v>10</v>
-      </c>
-      <c r="AJ97" s="8">
+      <c r="V98" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="W98" s="9">
+        <v>1055</v>
+      </c>
+      <c r="X98" s="8">
+        <v>0.0028</v>
+      </c>
+      <c r="Y98" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="Z98" s="9">
+        <v>74</v>
+      </c>
+      <c r="AA98" s="8">
+        <v>0.0002</v>
+      </c>
+      <c r="AB98" s="7">
+        <v>2.97</v>
+      </c>
+      <c r="AC98" s="7">
+        <v>3.93</v>
+      </c>
+      <c r="AD98" s="7">
+        <v>306.49</v>
+      </c>
+      <c r="AE98" s="7">
+        <v>488.27</v>
+      </c>
+      <c r="AF98" s="7">
+        <v>270.53</v>
+      </c>
+      <c r="AG98" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="AH98" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="AI98" s="9">
+        <v>16</v>
+      </c>
+      <c r="AJ98" s="8">
         <v>0.0001</v>
       </c>
-      <c r="AK97" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL97" s="7">
-        <v>20.81</v>
+      <c r="AK98" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="7">
+        <v>18.19</v>
       </c>
     </row>
   </sheetData>
